--- a/data/hotels_by_city/Houston/Houston_shard_5.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g30163-d107461-Reviews-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Galveston-Hotels-Americas-Best-Value-Inn-Suites-AlvinHouston.h180345.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,484 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r557129836-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>107461</t>
+  </si>
+  <si>
+    <t>557129836</t>
+  </si>
+  <si>
+    <t>01/29/2018</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Much better than expected picking online, and great value. The lobby was nice and clean, the rooms were much nicer than I expected for the price and if I visit the area with my family this is where we will stay !</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r555218324-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>555218324</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>While some the Americas Best Value Inn's across the US are "hit or miss" I wanted to write this ABVI in Alvin, TX exceeds all expectations. It is very clean and the staff is very friendly and helpful. I travel the US with my job and stay at many motels, so I would consider my myself one who could give an unbiased opinion. Again, as far as my stay, excellent. Would stay there again in a heart beat!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r551265984-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>551265984</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We stayed here 4 nights over Christmas and found this hotel to be very very good.  The room was very spacious and clean.  It had all the amenities to make our stay easy.  All staff members we met were very nice and greeted us each time we saw them.  We highly recommend this hotel and will be staying there again.  Rate was excellent also!</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r512189077-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>512189077</t>
+  </si>
+  <si>
+    <t>08/13/2017</t>
+  </si>
+  <si>
+    <t>Very friendly front desk and clean hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margaret Dollery made sure our stay in Galveston, Texas was amazing. She took such a great care of us while we were staying at the Inn. She's so sweet, humble &amp; kind, she's wanted to make sure her guests were ALWAYS comfortable with their stay at the Inn. Ask for her when your staying at this Inn. We will definitely be back next time we're visiting. Highly recommended for friends and families . </t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r495001627-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>495001627</t>
+  </si>
+  <si>
+    <t>06/21/2017</t>
+  </si>
+  <si>
+    <t>Overall, it was a nice motel. Room was comfortable. It had table and chairs in room. Missing an ironing board, but brought one to us right away. The dvd player didnt work, the connections didnt match the tv... Bummer. Beds were very nice.  Door was secure. Customer service was very nice. Would stay again.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r486608522-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>486608522</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>Nice big rooms, very helpful staff and very clean.  Good central location.  The little town of Alvin was very nice.  A great walking or bicycling path behind the motel was exceptionally enjoyable.  Highly recommend!</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r474303665-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>474303665</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>Very good room for the price</t>
+  </si>
+  <si>
+    <t>This hotel seems way cleaner than most in the area. This is a small town so I didnt expect anything super fancy.  I was surprised, the fridge in the room was large, there was a microwave, and DVD player.  The DVD player didnt work but no biggie. There was an ice machine close by and the hotel was close to plenty of food.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r473636927-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>473636927</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>DO NOT TRUST THE REVIEWS!!!!!</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was a good price AND because it got great reviews.  It got a 4.2 and the reviews were good.  HOWEVER I do not understand how it got such great reviews because it was an absolute  terrible place to stay.  
+The rooms are decorated in the most distasteful colours that gives the room a dirty and cheap feel.  However the colour would not have been an issue if that was the only draw back to this hotel.  These hotels are super low budget and this particular location was so  filthy.  
+When I pulled off my bed spread (which I am sure was full of stains and dirt and definitely not washed between guests) my sheets were stained and the blanket had cigarette burns all over it. I called to get the sheets replaced and for a newly washed blanket.  The owner was very good to change the sheets.  However when he was changing the sheets he put the blanket and bedspread on the floor, which was FILTHY.  I didn't say anything since I wasn't going to put the bed spread or blanket on again.  However what was disturbing was he kept on trying to put the blanket and bedspread blanket back on my bed like it wasn't a problem that it had been on the filthy carpet.  I had to tell him a couple of times to stop. To me this showed exactly how the...I booked this hotel because it was a good price AND because it got great reviews.  It got a 4.2 and the reviews were good.  HOWEVER I do not understand how it got such great reviews because it was an absolute  terrible place to stay.  The rooms are decorated in the most distasteful colours that gives the room a dirty and cheap feel.  However the colour would not have been an issue if that was the only draw back to this hotel.  These hotels are super low budget and this particular location was so  filthy.  When I pulled off my bed spread (which I am sure was full of stains and dirt and definitely not washed between guests) my sheets were stained and the blanket had cigarette burns all over it. I called to get the sheets replaced and for a newly washed blanket.  The owner was very good to change the sheets.  However when he was changing the sheets he put the blanket and bedspread on the floor, which was FILTHY.  I didn't say anything since I wasn't going to put the bed spread or blanket on again.  However what was disturbing was he kept on trying to put the blanket and bedspread blanket back on my bed like it wasn't a problem that it had been on the filthy carpet.  I had to tell him a couple of times to stop. To me this showed exactly how the management and thus staff tended to the cleaning and over all cleanliness of this hotel.  BTW my newly washed blanket had even more cigarette burns on it then the first one.  It was so badly burned that it looked like swiss cheese!!!!The shower and sink area was old and not cleaned well. The towels are so thin and crusty.  I didn't use my face cloth since it had stains all over it.  I wouldn't even use it to line the counters so I could put my stuff on it. The floors in the shower area was immensely dirty.  The corners had so much dirt built up that you could easily see the brown from far away. I actually wore my flip flops in the shower so I wouldn't have to touch anything. Plus I never took off my shoes while staying there since I did not want to touch the carpet or floors.Everything is this room was dirty and soooooo poorly maintained.  You can tell by your fellow guests that it is a very very very very low quality hotel as they look like they just got out of prison.  This is definitely not a family quality hotel.  This was the second America's best Inn and Suites that I stayed in during my trip to Texas. The first one was distastefully decorated but it was decently clean. After I left that America's Best I had decided that I would never book with them again on my next trip however since I had already booked by hotels for this trip I would just put up with the low quality.  HOWEVER after staying at this particular location in Alvin,  I actually cancelled my next reservation with America's Best Value Inn in Galveston because I didn't want to experience another horrible night!!!!  I will NEVER EVER book with this hotel chain again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel because it was a good price AND because it got great reviews.  It got a 4.2 and the reviews were good.  HOWEVER I do not understand how it got such great reviews because it was an absolute  terrible place to stay.  
+The rooms are decorated in the most distasteful colours that gives the room a dirty and cheap feel.  However the colour would not have been an issue if that was the only draw back to this hotel.  These hotels are super low budget and this particular location was so  filthy.  
+When I pulled off my bed spread (which I am sure was full of stains and dirt and definitely not washed between guests) my sheets were stained and the blanket had cigarette burns all over it. I called to get the sheets replaced and for a newly washed blanket.  The owner was very good to change the sheets.  However when he was changing the sheets he put the blanket and bedspread on the floor, which was FILTHY.  I didn't say anything since I wasn't going to put the bed spread or blanket on again.  However what was disturbing was he kept on trying to put the blanket and bedspread blanket back on my bed like it wasn't a problem that it had been on the filthy carpet.  I had to tell him a couple of times to stop. To me this showed exactly how the...I booked this hotel because it was a good price AND because it got great reviews.  It got a 4.2 and the reviews were good.  HOWEVER I do not understand how it got such great reviews because it was an absolute  terrible place to stay.  The rooms are decorated in the most distasteful colours that gives the room a dirty and cheap feel.  However the colour would not have been an issue if that was the only draw back to this hotel.  These hotels are super low budget and this particular location was so  filthy.  When I pulled off my bed spread (which I am sure was full of stains and dirt and definitely not washed between guests) my sheets were stained and the blanket had cigarette burns all over it. I called to get the sheets replaced and for a newly washed blanket.  The owner was very good to change the sheets.  However when he was changing the sheets he put the blanket and bedspread on the floor, which was FILTHY.  I didn't say anything since I wasn't going to put the bed spread or blanket on again.  However what was disturbing was he kept on trying to put the blanket and bedspread blanket back on my bed like it wasn't a problem that it had been on the filthy carpet.  I had to tell him a couple of times to stop. To me this showed exactly how the management and thus staff tended to the cleaning and over all cleanliness of this hotel.  BTW my newly washed blanket had even more cigarette burns on it then the first one.  It was so badly burned that it looked like swiss cheese!!!!The shower and sink area was old and not cleaned well. The towels are so thin and crusty.  I didn't use my face cloth since it had stains all over it.  I wouldn't even use it to line the counters so I could put my stuff on it. The floors in the shower area was immensely dirty.  The corners had so much dirt built up that you could easily see the brown from far away. I actually wore my flip flops in the shower so I wouldn't have to touch anything. Plus I never took off my shoes while staying there since I did not want to touch the carpet or floors.Everything is this room was dirty and soooooo poorly maintained.  You can tell by your fellow guests that it is a very very very very low quality hotel as they look like they just got out of prison.  This is definitely not a family quality hotel.  This was the second America's best Inn and Suites that I stayed in during my trip to Texas. The first one was distastefully decorated but it was decently clean. After I left that America's Best I had decided that I would never book with them again on my next trip however since I had already booked by hotels for this trip I would just put up with the low quality.  HOWEVER after staying at this particular location in Alvin,  I actually cancelled my next reservation with America's Best Value Inn in Galveston because I didn't want to experience another horrible night!!!!  I will NEVER EVER book with this hotel chain again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r458633006-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>458633006</t>
+  </si>
+  <si>
+    <t>02/11/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Motel</t>
+  </si>
+  <si>
+    <t>I stayed at the Americas Best Value Inn for about one year. My time was comfortable, clean and the staff friendly and helpful. Sunny, the owner, is an honest and good man. There are good restaurants close by and the swimming pool is nice.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r395280652-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>395280652</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>Enjoyed Stay</t>
+  </si>
+  <si>
+    <t>My daughter and I enjoyed our stay at America's Best Value Inn in Alvin TX during our visit to Galveston TX. It was the lowest cost motel we could find on short notice near the beach. The room was clean and had a comfortable king size bed with large pillows. The staff was very nice and had good suggestions on places to eat. Would stay again.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r367564881-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>367564881</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>Except for the problem in finding the hotel because Google gives you the wrong information, our stay was very nice.  We called the hotel and they gave us directions and told us that they have tried to get Google to correct their location.   The room was very clean, nicely decorated, and quiet.  They provided a nice breakfast with waffles, muffins, cereal, and a selection of drinks.  My only complaint would be their channel selections which tended to sway to the sports world. We would stay there again.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r362348226-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>362348226</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>great place</t>
+  </si>
+  <si>
+    <t>Room was very nice, clean and updated. Had a good selection of breakfast items, including belgian waffles. Even though the coffee dispenser was a bit high for shorter people. Staff was very friendly, can only recommend this place.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r349188980-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>349188980</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>The desk clerk was very friendly and accommodating. There was no hesitating in meeting our special needs  the room was nice and clean the bed was comfortable.  We had a front row room and heard almost no road traffic noise. If we are in Alvin again we would stay there. We are frequent travelers and will use this chain again based on this stay</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r285184754-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>285184754</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Just Fantastic!</t>
+  </si>
+  <si>
+    <t>We are in the middle of a move and had stay here 3 nights while waiting on our apartment to be finished.The hotel is great. Has been remodeled. Bed was comfy. Everything was clean. Staff was friendly. Hot water and pressure was good. Nice pool area and washing machine to do laundry. Just a great stay and if I ever need a hotel again in the area again i will stay here. I would recommend to everyone.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r284745714-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>284745714</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>Salvation</t>
+  </si>
+  <si>
+    <t>This motel treated me great when my Electricity went out. I have sleep appnea  and need my machine to sleep. The room was well decorated and bed very nice. Nice pool area and a nice breakfast.  You can tell the owner puts a lot money back into motel and keeps it up real good., I will certainly use this motel again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r200994779-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>200994779</t>
+  </si>
+  <si>
+    <t>04/13/2014</t>
+  </si>
+  <si>
+    <t>One of the best</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel the weekend prior to our sailing on Carnival Magic. Impressed with the greeting of the hotel clerk. We arrived around 4-4:30 pm. He was very helpful and friendly. The room was spacious. The ac/heating unit was quiet. It looked like all rooms were non-smoking. So if you smoke you should inquire about that. There was a desk and a table with two chairs. The bed was very comfortable. It is rated a 2* but it should b rated at least a 4*. The TV was 42/47" with a DVD player. Had a hot breakfast. The only negative was the water has a automatic thermostat where the water doesn't get hot. I like a HOT bath so that didn't work too well. All in all we will definitely stay here each time we cruise. Great place to stay for the price!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>abvialvin, Front Office Manager at Americas Best Value Inn &amp; Suites-Alvin/Houston, responded to this reviewResponded April 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel the weekend prior to our sailing on Carnival Magic. Impressed with the greeting of the hotel clerk. We arrived around 4-4:30 pm. He was very helpful and friendly. The room was spacious. The ac/heating unit was quiet. It looked like all rooms were non-smoking. So if you smoke you should inquire about that. There was a desk and a table with two chairs. The bed was very comfortable. It is rated a 2* but it should b rated at least a 4*. The TV was 42/47" with a DVD player. Had a hot breakfast. The only negative was the water has a automatic thermostat where the water doesn't get hot. I like a HOT bath so that didn't work too well. All in all we will definitely stay here each time we cruise. Great place to stay for the price!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r183099280-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>183099280</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Nice place for an overnight</t>
+  </si>
+  <si>
+    <t>We stayed here two nights on a visit to Houston to see the Space Center. We arrived late at night and the front desk staff was good, we found a nice parking space right by our room. Our room was colorful and in good repair, very clean, the breakfast was a nice perk to start the day. Surprisingly quiet for being right near the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>abvialvin, Front Office Manager at Americas Best Value Inn &amp; Suites-Alvin/Houston, responded to this reviewResponded November 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2013</t>
+  </si>
+  <si>
+    <t>We stayed here two nights on a visit to Houston to see the Space Center. We arrived late at night and the front desk staff was good, we found a nice parking space right by our room. Our room was colorful and in good repair, very clean, the breakfast was a nice perk to start the day. Surprisingly quiet for being right near the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r180283460-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>180283460</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>samaritan</t>
+  </si>
+  <si>
+    <t>Mostly appreciate professional staff service like Amber and Dee-Dee -great asset to hotel, accommodating, approachable, courteous, same for male owner. Room good size, clean sheets except mildew/moldy smell in room could be from shower curtain or carpet not well dried. Service of housekeeping excellent,readily provided extra pillows for bad back/spine issues.Breakfast menu always the same but good starter for the day. Close to chinese buffet for meals. Location is excellent when driving otherwise a hassle.Free local calls offered but I could not get through when making local call except to front desk who did the dialing for me. A/C was efficient considering Texas temperature. Light fixtures very good.  Mini refrigerator was a big plus. Working desk and chair comfortable. Thank you so much America's Best Value Inn.  Will definitely go back to this hotel and recommend to friends and relatives.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>abvialvin, Front Office Manager at Americas Best Value Inn &amp; Suites-Alvin/Houston, responded to this reviewResponded October 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2013</t>
+  </si>
+  <si>
+    <t>Mostly appreciate professional staff service like Amber and Dee-Dee -great asset to hotel, accommodating, approachable, courteous, same for male owner. Room good size, clean sheets except mildew/moldy smell in room could be from shower curtain or carpet not well dried. Service of housekeeping excellent,readily provided extra pillows for bad back/spine issues.Breakfast menu always the same but good starter for the day. Close to chinese buffet for meals. Location is excellent when driving otherwise a hassle.Free local calls offered but I could not get through when making local call except to front desk who did the dialing for me. A/C was efficient considering Texas temperature. Light fixtures very good.  Mini refrigerator was a big plus. Working desk and chair comfortable. Thank you so much America's Best Value Inn.  Will definitely go back to this hotel and recommend to friends and relatives.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r162134055-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>162134055</t>
+  </si>
+  <si>
+    <t>05/28/2013</t>
+  </si>
+  <si>
+    <t>Good Location, Good Value</t>
+  </si>
+  <si>
+    <t>This place is a good value and good location to everything I needed.  Staff were nice and helpful.  The Breakfast was good, but they need more help, they got slammed when we came in and one lady was rushing to restock all the food but she had a hard time keeping up.  Rooms were a little outdated but comfortable and honestly thats all I care about.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r159003676-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>159003676</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Great value</t>
+  </si>
+  <si>
+    <t>We stayed here for 5 nights when visiting family n the area. We arrived in the evening and were tired and when we walked into our non smoking room it stank of smoke. We went back to reception who only had one room available that needed cleaning as it had been a late check out. The reception staff went with the night manager to get the room ready, nothing too much trouble. Good breakfast choices, rooms all spotless. We had another problem with guest in next room, very loud and noisy but again, the night manager took care of it. Will definitely stay here again, can really recommend.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r154369150-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>154369150</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Would Return</t>
+  </si>
+  <si>
+    <t>Wanted to be fairly near Galveston the day before leaving on a cruise. As I had seen positive reviews (but no recent ones), decided to take a chance. We were not disappointed. The room was very nice. The pool looked inviting ( wrong season though). The reception and breakfast areas were appealing. A hot breakfast was advertised and there were hot items. It is a fairly small location, so breakfast was on a smaller scale than if it had been a large "Inn". All necessary choices were available however. I think this is a location where workers (construction/road?) stay as there were a lot of what appeared to be work trucks parked there. No problems.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Wanted to be fairly near Galveston the day before leaving on a cruise. As I had seen positive reviews (but no recent ones), decided to take a chance. We were not disappointed. The room was very nice. The pool looked inviting ( wrong season though). The reception and breakfast areas were appealing. A hot breakfast was advertised and there were hot items. It is a fairly small location, so breakfast was on a smaller scale than if it had been a large "Inn". All necessary choices were available however. I think this is a location where workers (construction/road?) stay as there were a lot of what appeared to be work trucks parked there. No problems.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r112413129-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>112413129</t>
+  </si>
+  <si>
+    <t>06/09/2011</t>
+  </si>
+  <si>
+    <t>Will not honor their reservations</t>
+  </si>
+  <si>
+    <t>Beware as the rooms online are NOT the same at the hotel.  They will not honor your reservations and then you will be looking for another hotel at 1 am like we were.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r105881063-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>105881063</t>
+  </si>
+  <si>
+    <t>04/27/2011</t>
+  </si>
+  <si>
+    <t>Great place for a great price</t>
+  </si>
+  <si>
+    <t>Family of 5 - nice people - quite- easy to get to- clean rooms!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r103639701-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>103639701</t>
+  </si>
+  <si>
+    <t>04/11/2011</t>
+  </si>
+  <si>
+    <t>Very comfortable, clean, and nice rooms</t>
+  </si>
+  <si>
+    <t>My family came from Flordia to visit our family and they enjoyed their stay at the hotel. It was very clean, the people were very friendly, and the rooms were nice. When they come back to visit our family, they will be staying there again.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1016,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1048,1603 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>76</v>
+      </c>
+      <c r="O6" t="s">
+        <v>71</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>82</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>100</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="s">
+        <v>105</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>106</v>
+      </c>
+      <c r="O11" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>114</v>
+      </c>
+      <c r="J13" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" t="s">
+        <v>117</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>118</v>
+      </c>
+      <c r="O13" t="s">
+        <v>119</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>120</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>123</v>
+      </c>
+      <c r="L14" t="s">
+        <v>124</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>144</v>
+      </c>
+      <c r="X17" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>152</v>
+      </c>
+      <c r="O18" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>172</v>
+      </c>
+      <c r="J21" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" t="s">
+        <v>175</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>71</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_5.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_5.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r565355445-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>30163</t>
+  </si>
+  <si>
+    <t>107461</t>
+  </si>
+  <si>
+    <t>565355445</t>
+  </si>
+  <si>
+    <t>03/08/2018</t>
+  </si>
+  <si>
+    <t>They really shouldn't say Queen sized beds if it's a Full size!</t>
+  </si>
+  <si>
+    <t>We were expecting a 2 Queen bed room and got 2 full beds instead. However, that is the only complaint we had. a/c worked fine and it was clean. This motel is in the right area and is priced right too.</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r562984947-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>562984947</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>AVOID THIS PLACE</t>
+  </si>
+  <si>
+    <t>We booked months ago through Expedia. Arrived for a night before a cruise.  Were put in a first floor room (no elevators). Went to pick up dinner and when we returned the AC unit quit working. Front desk lady, Norma, comes down and messes with it, then proceeds to tell us the previous guest complained that this room was too cold.  AC worked about an hour and again quit and had an error message.  It was obvious that it was an electrical issue so at 7:45 pm were moved next door to their “sister hotel”. After moving all our cruise luggage again, arrived at Alvin Hotel and the room had just been painted and had a very very strong paint odor plus all desks and tables were covered in a thick layer of dust.  We were too tired to care but woke up with awful headaches. NEVER AGAIN! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We booked months ago through Expedia. Arrived for a night before a cruise.  Were put in a first floor room (no elevators). Went to pick up dinner and when we returned the AC unit quit working. Front desk lady, Norma, comes down and messes with it, then proceeds to tell us the previous guest complained that this room was too cold.  AC worked about an hour and again quit and had an error message.  It was obvious that it was an electrical issue so at 7:45 pm were moved next door to their “sister hotel”. After moving all our cruise luggage again, arrived at Alvin Hotel and the room had just been painted and had a very very strong paint odor plus all desks and tables were covered in a thick layer of dust.  We were too tired to care but woke up with awful headaches. NEVER AGAIN! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r557129836-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
-    <t>30163</t>
-  </si>
-  <si>
-    <t>107461</t>
-  </si>
-  <si>
     <t>557129836</t>
   </si>
   <si>
@@ -210,7 +255,43 @@
     <t>December 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r530619119-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>530619119</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t>Quick Stay Before Cruise</t>
+  </si>
+  <si>
+    <t>My husband &amp; I booked this hotel for the night before our cruise out of Galveston a couple of months before our sail date. Then hurricane Harvey happened 2 weeks before we were to check in. We called a week before to make sure they were still taking customers and if they had sustained any damage due to Harvey. They said they were still open but they might have to give us a queen instead of a king bc they were housing locals whose homes were flooded. Of course, that was perfectly fine! We got checked in and brought 2 cases of water for whoever needed it because some left caps were still there as well as FEMA. The staff was so nice &amp; accommodating. They did give us a king non smoking room. The room did smell as though it had been smoked in at some point but we didn’t request another room, just alerted the front desk so we would be charged for smoking (we weren’t.) The room was very nice, spacious, and comfortable. There was a CVS right next door that we walked to and rented a Redbox. The property was very clean and well kept. The continental breakfast was good and the food area was very clean. I look forward to staying there again the next time we cruise from Texas!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>My husband &amp; I booked this hotel for the night before our cruise out of Galveston a couple of months before our sail date. Then hurricane Harvey happened 2 weeks before we were to check in. We called a week before to make sure they were still taking customers and if they had sustained any damage due to Harvey. They said they were still open but they might have to give us a queen instead of a king bc they were housing locals whose homes were flooded. Of course, that was perfectly fine! We got checked in and brought 2 cases of water for whoever needed it because some left caps were still there as well as FEMA. The staff was so nice &amp; accommodating. They did give us a king non smoking room. The room did smell as though it had been smoked in at some point but we didn’t request another room, just alerted the front desk so we would be charged for smoking (we weren’t.) The room was very nice, spacious, and comfortable. There was a CVS right next door that we walked to and rented a Redbox. The property was very clean and well kept. The continental breakfast was good and the food area was very clean. I look forward to staying there again the next time we cruise from Texas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r522538906-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>522538906</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Very accommodating during Harvey!</t>
+  </si>
+  <si>
+    <t>Nice clean rooms, very helpful, friendly owner and staff...Our group of 14 stayed here 4 nights, riding out Harvey when our cruise was cancelled.  The staff let us to turn the lobby into a movie night by allowing us to hook our dvd player up to the lobby tv, make popcorn and watch Moana!  One of the receptionists even brought in games, coloring books &amp; markers for our kids...they even did a load of laundry for one of us!  I cannot say enough about the hospitality of this hotel and we would definitely stay here again if we are ever in the Galvestan area!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r512189077-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
@@ -228,12 +309,6 @@
     <t xml:space="preserve">Margaret Dollery made sure our stay in Galveston, Texas was amazing. She took such a great care of us while we were staying at the Inn. She's so sweet, humble &amp; kind, she's wanted to make sure her guests were ALWAYS comfortable with their stay at the Inn. Ask for her when your staying at this Inn. We will definitely be back next time we're visiting. Highly recommended for friends and families . </t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r495001627-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
@@ -265,6 +340,42 @@
   </si>
   <si>
     <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r475197899-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>475197899</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Really nice rooms!</t>
+  </si>
+  <si>
+    <t>Very surprised by the quality of the rooms at a budget price! Comfortable king size bed, fridge, microwave, coffee pot and pool were also a pleasant surprise.  Not only do you get all this, but complimentary continental breakfast too! The only thing that concerns me is the burn marks on the comforter in a non smoking room. I photographed them right away so I had a time stamp to prove I didn't cause them since they have signage telling you your card will be charged $250 if you smoke in a non-smoking room.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r474995222-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>474995222</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Good for one night</t>
+  </si>
+  <si>
+    <t>Stayed here the night before a cruise from Galveston. Staff was very friendly and the room was clean; in fact it smelled like it had been cleaned with straight bleach. We didn't partake of the breakfast or pool. The decor was pretty ugly but the price was right. There are plenty of restaurants close by and an WalMart up the street for last-minute, forgotten items.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r474303665-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
@@ -299,9 +410,6 @@
 When I pulled off my bed spread (which I am sure was full of stains and dirt and definitely not washed between guests) my sheets were stained and the blanket had cigarette burns all over it. I called to get the sheets replaced and for a newly washed blanket.  The owner was very good to change the sheets.  However when he was changing the sheets he put the blanket and bedspread on the floor, which was FILTHY.  I didn't say anything since I wasn't going to put the bed spread or blanket on again.  However what was disturbing was he kept on trying to put the blanket and bedspread blanket back on my bed like it wasn't a problem that it had been on the filthy carpet.  I had to tell him a couple of times to stop. To me this showed exactly how the...I booked this hotel because it was a good price AND because it got great reviews.  It got a 4.2 and the reviews were good.  HOWEVER I do not understand how it got such great reviews because it was an absolute  terrible place to stay.  The rooms are decorated in the most distasteful colours that gives the room a dirty and cheap feel.  However the colour would not have been an issue if that was the only draw back to this hotel.  These hotels are super low budget and this particular location was so  filthy.  When I pulled off my bed spread (which I am sure was full of stains and dirt and definitely not washed between guests) my sheets were stained and the blanket had cigarette burns all over it. I called to get the sheets replaced and for a newly washed blanket.  The owner was very good to change the sheets.  However when he was changing the sheets he put the blanket and bedspread on the floor, which was FILTHY.  I didn't say anything since I wasn't going to put the bed spread or blanket on again.  However what was disturbing was he kept on trying to put the blanket and bedspread blanket back on my bed like it wasn't a problem that it had been on the filthy carpet.  I had to tell him a couple of times to stop. To me this showed exactly how the management and thus staff tended to the cleaning and over all cleanliness of this hotel.  BTW my newly washed blanket had even more cigarette burns on it then the first one.  It was so badly burned that it looked like swiss cheese!!!!The shower and sink area was old and not cleaned well. The towels are so thin and crusty.  I didn't use my face cloth since it had stains all over it.  I wouldn't even use it to line the counters so I could put my stuff on it. The floors in the shower area was immensely dirty.  The corners had so much dirt built up that you could easily see the brown from far away. I actually wore my flip flops in the shower so I wouldn't have to touch anything. Plus I never took off my shoes while staying there since I did not want to touch the carpet or floors.Everything is this room was dirty and soooooo poorly maintained.  You can tell by your fellow guests that it is a very very very very low quality hotel as they look like they just got out of prison.  This is definitely not a family quality hotel.  This was the second America's best Inn and Suites that I stayed in during my trip to Texas. The first one was distastefully decorated but it was decently clean. After I left that America's Best I had decided that I would never book with them again on my next trip however since I had already booked by hotels for this trip I would just put up with the low quality.  HOWEVER after staying at this particular location in Alvin,  I actually cancelled my next reservation with America's Best Value Inn in Galveston because I didn't want to experience another horrible night!!!!  I will NEVER EVER book with this hotel chain again.MoreShow less</t>
   </si>
   <si>
-    <t>March 2017</t>
-  </si>
-  <si>
     <t>I booked this hotel because it was a good price AND because it got great reviews.  It got a 4.2 and the reviews were good.  HOWEVER I do not understand how it got such great reviews because it was an absolute  terrible place to stay.  
 The rooms are decorated in the most distasteful colours that gives the room a dirty and cheap feel.  However the colour would not have been an issue if that was the only draw back to this hotel.  These hotels are super low budget and this particular location was so  filthy.  
 When I pulled off my bed spread (which I am sure was full of stains and dirt and definitely not washed between guests) my sheets were stained and the blanket had cigarette burns all over it. I called to get the sheets replaced and for a newly washed blanket.  The owner was very good to change the sheets.  However when he was changing the sheets he put the blanket and bedspread on the floor, which was FILTHY.  I didn't say anything since I wasn't going to put the bed spread or blanket on again.  However what was disturbing was he kept on trying to put the blanket and bedspread blanket back on my bed like it wasn't a problem that it had been on the filthy carpet.  I had to tell him a couple of times to stop. To me this showed exactly how the...I booked this hotel because it was a good price AND because it got great reviews.  It got a 4.2 and the reviews were good.  HOWEVER I do not understand how it got such great reviews because it was an absolute  terrible place to stay.  The rooms are decorated in the most distasteful colours that gives the room a dirty and cheap feel.  However the colour would not have been an issue if that was the only draw back to this hotel.  These hotels are super low budget and this particular location was so  filthy.  When I pulled off my bed spread (which I am sure was full of stains and dirt and definitely not washed between guests) my sheets were stained and the blanket had cigarette burns all over it. I called to get the sheets replaced and for a newly washed blanket.  The owner was very good to change the sheets.  However when he was changing the sheets he put the blanket and bedspread on the floor, which was FILTHY.  I didn't say anything since I wasn't going to put the bed spread or blanket on again.  However what was disturbing was he kept on trying to put the blanket and bedspread blanket back on my bed like it wasn't a problem that it had been on the filthy carpet.  I had to tell him a couple of times to stop. To me this showed exactly how the management and thus staff tended to the cleaning and over all cleanliness of this hotel.  BTW my newly washed blanket had even more cigarette burns on it then the first one.  It was so badly burned that it looked like swiss cheese!!!!The shower and sink area was old and not cleaned well. The towels are so thin and crusty.  I didn't use my face cloth since it had stains all over it.  I wouldn't even use it to line the counters so I could put my stuff on it. The floors in the shower area was immensely dirty.  The corners had so much dirt built up that you could easily see the brown from far away. I actually wore my flip flops in the shower so I wouldn't have to touch anything. Plus I never took off my shoes while staying there since I did not want to touch the carpet or floors.Everything is this room was dirty and soooooo poorly maintained.  You can tell by your fellow guests that it is a very very very very low quality hotel as they look like they just got out of prison.  This is definitely not a family quality hotel.  This was the second America's best Inn and Suites that I stayed in during my trip to Texas. The first one was distastefully decorated but it was decently clean. After I left that America's Best I had decided that I would never book with them again on my next trip however since I had already booked by hotels for this trip I would just put up with the low quality.  HOWEVER after staying at this particular location in Alvin,  I actually cancelled my next reservation with America's Best Value Inn in Galveston because I didn't want to experience another horrible night!!!!  I will NEVER EVER book with this hotel chain again.More</t>
@@ -325,6 +433,39 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r402462514-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>402462514</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Air Not Working</t>
+  </si>
+  <si>
+    <t>We came in late around 7/21/2016 and took the last room at around midnight.The air was out and it was 90 degrees in the room. At 3:00 in the morning the office gave us a fan to cool down. Management did nothing to make it right the next day.I called last week to see we had anything else they could make right. Management did not return my phone call. They care about bottom dollar and do not bend to American Values. Warning, stay elsewhere when coming through Alvin Texas.Rob Wilbanks</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r396231485-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>396231485</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t>Great way to stay</t>
+  </si>
+  <si>
+    <t>This the best hotel in Alvin Texas everything great pool needs a little shade to sun hot. The staff was outstanding we have been staying ever July for 5 years. They keep record know what type of room you need</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r395280652-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
@@ -340,9 +481,6 @@
     <t>My daughter and I enjoyed our stay at America's Best Value Inn in Alvin TX during our visit to Galveston TX. It was the lowest cost motel we could find on short notice near the beach. The room was clean and had a comfortable king size bed with large pillows. The staff was very nice and had good suggestions on places to eat. Would stay again.</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r367564881-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
@@ -382,6 +520,45 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r360230661-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>360230661</t>
+  </si>
+  <si>
+    <t>03/30/2016</t>
+  </si>
+  <si>
+    <t>Go somewhere else</t>
+  </si>
+  <si>
+    <t>this used to be our favorite place to stay. It had an amazing breakfast. With eggs, sausage, bacon, gravy, biscuits plus all the continental breakfast items. Not zilch! It is called a continental breakfast but I wouldn't waste my time! We booked our stay overnight for our cruise set to leave Galveston. They were painting the lobby. I have asthma and the smell of paint was so overwhelming I had to step outside while my partner checked us in. We were very disappointed and will not stay here again. The price is standard.  But if you are expecting much you will be sorely disappointed! The room was big and the bed was very comfortable so that is the best thing about it. There is no bathtub only a shower. I love my baths before I go to bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>this used to be our favorite place to stay. It had an amazing breakfast. With eggs, sausage, bacon, gravy, biscuits plus all the continental breakfast items. Not zilch! It is called a continental breakfast but I wouldn't waste my time! We booked our stay overnight for our cruise set to leave Galveston. They were painting the lobby. I have asthma and the smell of paint was so overwhelming I had to step outside while my partner checked us in. We were very disappointed and will not stay here again. The price is standard.  But if you are expecting much you will be sorely disappointed! The room was big and the bed was very comfortable so that is the best thing about it. There is no bathtub only a shower. I love my baths before I go to bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r350711938-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>350711938</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Very accommodating &amp; friendly staff!!</t>
+  </si>
+  <si>
+    <t>Best staff in Texas for a 2.5 rated hotel, they should be rated with your 3.5-4 star hotels! Beds are comfortable &amp; clean, rooms are keep with cleanliness &amp; detailed maintenance. The grounds are very well maintained &amp; free of bogus traffic (i.e. Druggies, noisy guess, non occupants, etc..). If you're in the area of Alvin, Tx, it's worth every penny to check out this hotel, you get you're money's worth and more! I'm not a rating person, but I had to give these people a perfect 5 star for effort &amp; customer satisfaction. Overall, the stay was pleasant &amp; quiet the way a hotel should be! I will always give them my business when I'm in or near the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Best staff in Texas for a 2.5 rated hotel, they should be rated with your 3.5-4 star hotels! Beds are comfortable &amp; clean, rooms are keep with cleanliness &amp; detailed maintenance. The grounds are very well maintained &amp; free of bogus traffic (i.e. Druggies, noisy guess, non occupants, etc..). If you're in the area of Alvin, Tx, it's worth every penny to check out this hotel, you get you're money's worth and more! I'm not a rating person, but I had to give these people a perfect 5 star for effort &amp; customer satisfaction. Overall, the stay was pleasant &amp; quiet the way a hotel should be! I will always give them my business when I'm in or near the area!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r349188980-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
@@ -397,9 +574,6 @@
     <t>The desk clerk was very friendly and accommodating. There was no hesitating in meeting our special needs  the room was nice and clean the bed was comfortable.  We had a front row room and heard almost no road traffic noise. If we are in Alvin again we would stay there. We are frequent travelers and will use this chain again based on this stay</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r285184754-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
@@ -433,7 +607,46 @@
     <t>This motel treated me great when my Electricity went out. I have sleep appnea  and need my machine to sleep. The room was well decorated and bed very nice. Nice pool area and a nice breakfast.  You can tell the owner puts a lot money back into motel and keeps it up real good., I will certainly use this motel again.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r272074456-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>272074456</t>
+  </si>
+  <si>
+    <t>05/14/2015</t>
+  </si>
+  <si>
+    <t>Our "go-to" hotel when we're in town.</t>
+  </si>
+  <si>
+    <t>Every time we come into town to visit family we stay at the America's Best Value Inn and Suites and every time it's great!  They are very attentive and the rooms and facilities are clean and well kept!  We come in pretty regularly and this place always delivers.</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r244755239-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>244755239</t>
+  </si>
+  <si>
+    <t>12/16/2014</t>
+  </si>
+  <si>
+    <t>Very pleased and will recommend it!</t>
+  </si>
+  <si>
+    <t>We stayed at one of your hotels in Alvin, Tx last night. We travel for business, and we found this one to be the best hotel to stay in. Clean, comfortable and affordable.We actually had a 2 Day stay, and left after one night from another motel,  and were lucky enough to find this hotel. If we are ever in the area again,we will be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>abvialvin, Front Office Manager at Americas Best Value Inn &amp; Suites-Alvin/Houston, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at one of your hotels in Alvin, Tx last night. We travel for business, and we found this one to be the best hotel to stay in. Clean, comfortable and affordable.We actually had a 2 Day stay, and left after one night from another motel,  and were lucky enough to find this hotel. If we are ever in the area again,we will be back.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r200994779-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
@@ -517,6 +730,59 @@
     <t>Mostly appreciate professional staff service like Amber and Dee-Dee -great asset to hotel, accommodating, approachable, courteous, same for male owner. Room good size, clean sheets except mildew/moldy smell in room could be from shower curtain or carpet not well dried. Service of housekeeping excellent,readily provided extra pillows for bad back/spine issues.Breakfast menu always the same but good starter for the day. Close to chinese buffet for meals. Location is excellent when driving otherwise a hassle.Free local calls offered but I could not get through when making local call except to front desk who did the dialing for me. A/C was efficient considering Texas temperature. Light fixtures very good.  Mini refrigerator was a big plus. Working desk and chair comfortable. Thank you so much America's Best Value Inn.  Will definitely go back to this hotel and recommend to friends and relatives.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r179847565-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>179847565</t>
+  </si>
+  <si>
+    <t>10/05/2013</t>
+  </si>
+  <si>
+    <t>Recently updated.</t>
+  </si>
+  <si>
+    <t>Stayed here in April then again this weekend. It's been updated in that time. Lots more modern and seems like it had a thorough cleaning. Comfy beds and very clean, free breakfast was a perk!!!!!!!!!!!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>abvialvin, Manager at Americas Best Value Inn &amp; Suites-Alvin/Houston, responded to this reviewResponded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here in April then again this weekend. It's been updated in that time. Lots more modern and seems like it had a thorough cleaning. Comfy beds and very clean, free breakfast was a perk!!!!!!!!!!!!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r166939931-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>166939931</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>toilitries vandalized, average rooms, average price, and not very clean.</t>
+  </si>
+  <si>
+    <t>We stayed at the Americas Best Value In Alvin, TX for apprx. 5 nights. It was your average older motel with an clean appearance upon first glance. But there were some problems with the room, such as a cracked toilet seat that would pinch you when you sat down and the old blue velvet blankets full of holes and cigarette burns. 
+One morning I had noticed that my toothbrush had a stray hair on it, Upon trying to remove the stray hair, a whole mass of of long blonde hair came out of the toothbrush, like something you would pull out of a drain. I know the hair could not have been mine, because I have dark shaved hair. It appeared to me that they had used it to "clean" something with it. The next morning the hotel staff was notified of the issue then we checked out early and moved to the Holiday Inn Express next door. (Nice clean hotel by the way)
+The Americas Best Value Inn was seemingly unhappy about having to refund us for the remainder of our stay due to checking out early and we went about our way. 
+A few hours later they began harassing us about a stain on the mattress, stating that we had to pay for a new mattress and claimed that we had vandalized the room. Shortly after the phone call the proprietor, Yogi filed the police report. 
+I have...We stayed at the Americas Best Value In Alvin, TX for apprx. 5 nights. It was your average older motel with an clean appearance upon first glance. But there were some problems with the room, such as a cracked toilet seat that would pinch you when you sat down and the old blue velvet blankets full of holes and cigarette burns. One morning I had noticed that my toothbrush had a stray hair on it, Upon trying to remove the stray hair, a whole mass of of long blonde hair came out of the toothbrush, like something you would pull out of a drain. I know the hair could not have been mine, because I have dark shaved hair. It appeared to me that they had used it to "clean" something with it. The next morning the hotel staff was notified of the issue then we checked out early and moved to the Holiday Inn Express next door. (Nice clean hotel by the way)The Americas Best Value Inn was seemingly unhappy about having to refund us for the remainder of our stay due to checking out early and we went about our way. A few hours later they began harassing us about a stain on the mattress, stating that we had to pay for a new mattress and claimed that we had vandalized the room. Shortly after the phone call the proprietor, Yogi filed the police report. I have obtained the police report and the report states as follows: "It's obvious the boss, Yogi, is reporting the housekeeping inconvenience because of his anger towards "us" (name removed). Yogi is using the police department to get back at "us" (name removed) No damage occurred"Upon returning to the hotel to dispute the damages, they allowed me to inspect the room. The stains on the mattress appeared old, and there was a variety of different colored stains. I had tried to document the stains with my camera phone and was immediately rushed from the room by hotel staff. Upon being removed from the room I had left to Alvin police department to speak with the officer that had handled the report. I would highly encourage anyone reading this review to stay clear of this hotel, Not to mention the psychological damage of the contaminated toothbrush, I had to take time out of my busy day to visit with the hotel, as well as the Alvin police department about the "vandalism" and quite possibly my credit card company to fight the charge for the new mattress.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>We stayed at the Americas Best Value In Alvin, TX for apprx. 5 nights. It was your average older motel with an clean appearance upon first glance. But there were some problems with the room, such as a cracked toilet seat that would pinch you when you sat down and the old blue velvet blankets full of holes and cigarette burns. 
+One morning I had noticed that my toothbrush had a stray hair on it, Upon trying to remove the stray hair, a whole mass of of long blonde hair came out of the toothbrush, like something you would pull out of a drain. I know the hair could not have been mine, because I have dark shaved hair. It appeared to me that they had used it to "clean" something with it. The next morning the hotel staff was notified of the issue then we checked out early and moved to the Holiday Inn Express next door. (Nice clean hotel by the way)
+The Americas Best Value Inn was seemingly unhappy about having to refund us for the remainder of our stay due to checking out early and we went about our way. 
+A few hours later they began harassing us about a stain on the mattress, stating that we had to pay for a new mattress and claimed that we had vandalized the room. Shortly after the phone call the proprietor, Yogi filed the police report. 
+I have...We stayed at the Americas Best Value In Alvin, TX for apprx. 5 nights. It was your average older motel with an clean appearance upon first glance. But there were some problems with the room, such as a cracked toilet seat that would pinch you when you sat down and the old blue velvet blankets full of holes and cigarette burns. One morning I had noticed that my toothbrush had a stray hair on it, Upon trying to remove the stray hair, a whole mass of of long blonde hair came out of the toothbrush, like something you would pull out of a drain. I know the hair could not have been mine, because I have dark shaved hair. It appeared to me that they had used it to "clean" something with it. The next morning the hotel staff was notified of the issue then we checked out early and moved to the Holiday Inn Express next door. (Nice clean hotel by the way)The Americas Best Value Inn was seemingly unhappy about having to refund us for the remainder of our stay due to checking out early and we went about our way. A few hours later they began harassing us about a stain on the mattress, stating that we had to pay for a new mattress and claimed that we had vandalized the room. Shortly after the phone call the proprietor, Yogi filed the police report. I have obtained the police report and the report states as follows: "It's obvious the boss, Yogi, is reporting the housekeeping inconvenience because of his anger towards "us" (name removed). Yogi is using the police department to get back at "us" (name removed) No damage occurred"Upon returning to the hotel to dispute the damages, they allowed me to inspect the room. The stains on the mattress appeared old, and there was a variety of different colored stains. I had tried to document the stains with my camera phone and was immediately rushed from the room by hotel staff. Upon being removed from the room I had left to Alvin police department to speak with the officer that had handled the report. I would highly encourage anyone reading this review to stay clear of this hotel, Not to mention the psychological damage of the contaminated toothbrush, I had to take time out of my busy day to visit with the hotel, as well as the Alvin police department about the "vandalism" and quite possibly my credit card company to fight the charge for the new mattress.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r162134055-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
@@ -574,6 +840,42 @@
     <t>Wanted to be fairly near Galveston the day before leaving on a cruise. As I had seen positive reviews (but no recent ones), decided to take a chance. We were not disappointed. The room was very nice. The pool looked inviting ( wrong season though). The reception and breakfast areas were appealing. A hot breakfast was advertised and there were hot items. It is a fairly small location, so breakfast was on a smaller scale than if it had been a large "Inn". All necessary choices were available however. I think this is a location where workers (construction/road?) stay as there were a lot of what appeared to be work trucks parked there. No problems.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r116769158-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>116769158</t>
+  </si>
+  <si>
+    <t>08/15/2011</t>
+  </si>
+  <si>
+    <t>We loved it and can't wait to come back!</t>
+  </si>
+  <si>
+    <t>Everything was perfect, we had the pool to ourselves all three days we stayed.  Pool was well kept, rooms were beautiful, staff was amazing. I would recommend this hotel to everyone.  They made our stay completely enjoyable!</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r114763662-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>114763662</t>
+  </si>
+  <si>
+    <t>06/26/2011</t>
+  </si>
+  <si>
+    <t>PERFECTION PERFECTED</t>
+  </si>
+  <si>
+    <t>My job requires me to travel throughout the country.I stayed in more than my fair share of hotels.Americas Best Value Inn-Alvin is very captivating and only for half the price of most hotels that cost $100 or more,you recieve the same quality of every aspect of a comfortable stay if not more of it.It is guranteed if my occupation lands me in the vicinity of this establishment there is no doubt where my head will lay for the evening!!!!</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r112413129-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
   </si>
   <si>
@@ -623,6 +925,51 @@
   </si>
   <si>
     <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r58507718-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>58507718</t>
+  </si>
+  <si>
+    <t>03/13/2010</t>
+  </si>
+  <si>
+    <t>Friendly.</t>
+  </si>
+  <si>
+    <t>Very nice front desk person. Friendly. Comfortable quiet rooms. Easy access.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 5, 2011</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2011</t>
+  </si>
+  <si>
+    <t>Very nice front desk person. Friendly. Comfortable quiet rooms. Easy access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30163-d107461-r5297331-Americas_Best_Value_Inn_Suites_Alvin_Houston-Alvin_Texas.html</t>
+  </si>
+  <si>
+    <t>5297331</t>
+  </si>
+  <si>
+    <t>06/03/2006</t>
+  </si>
+  <si>
+    <t>O.K. Butt-----</t>
+  </si>
+  <si>
+    <t>My stay at best value inn was not a very good time. I am a local Alvin resident. The main reason I rent aroom is to enjoy the pool on a hot  Houston day. However after I checked in I went to the pool. Very nice and well kept. The frist thirty minites was wonderful. But then here comes .a family of four. The Mother used foul and abusive langage in front of her minor children Then they use the pool with thier clothes on no suimsuits.t hen the father blew his nose in the water not once not twice but several times. oh it gets better. Then the mom starts gagging and starts to throw up in the pool. Then people start showing up all same family, being dropped off in the parking lot, As i noticed they were using the same key to get in.   About 25 people by now, all one family, So I am totally grossed out by now, because every child in the pool keeps saying they have buggers on them. so I call the front desk and explain  whats  going on .They sent a boy out to the pool and he walked out turned and left. So how I feel about it is someone should came out and overseen that everyone was obeying the rules My stayed was ruined. SO overall bad experince. SOMEONE needs to take responcibilty for what goes on .I know...My stay at best value inn was not a very good time. I am a local Alvin resident. The main reason I rent aroom is to enjoy the pool on a hot  Houston day. However after I checked in I went to the pool. Very nice and well kept. The frist thirty minites was wonderful. But then here comes .a family of four. The Mother used foul and abusive langage in front of her minor children Then they use the pool with thier clothes on no suimsuits.t hen the father blew his nose in the water not once not twice but several times. oh it gets better. Then the mom starts gagging and starts to throw up in the pool. Then people start showing up all same family, being dropped off in the parking lot, As i noticed they were using the same key to get in.   About 25 people by now, all one family, So I am totally grossed out by now, because every child in the pool keeps saying they have buggers on them. so I call the front desk and explain  whats  going on .They sent a boy out to the pool and he walked out turned and left. So how I feel about it is someone should came out and overseen that everyone was obeying the rules My stayed was ruined. SO overall bad experince. SOMEONE needs to take responcibilty for what goes on .I know most of that family did not stay at the hotel since I had nothing to do I watched several people out the window leave and not returned, Then this same family pulled a truck  up to the pool and turned the music up loud I could not belive it, So if your looking for a loud out of control  don't care attitude this is the place for you. SAD BUT TRUEMoreShow less</t>
+  </si>
+  <si>
+    <t>My stay at best value inn was not a very good time. I am a local Alvin resident. The main reason I rent aroom is to enjoy the pool on a hot  Houston day. However after I checked in I went to the pool. Very nice and well kept. The frist thirty minites was wonderful. But then here comes .a family of four. The Mother used foul and abusive langage in front of her minor children Then they use the pool with thier clothes on no suimsuits.t hen the father blew his nose in the water not once not twice but several times. oh it gets better. Then the mom starts gagging and starts to throw up in the pool. Then people start showing up all same family, being dropped off in the parking lot, As i noticed they were using the same key to get in.   About 25 people by now, all one family, So I am totally grossed out by now, because every child in the pool keeps saying they have buggers on them. so I call the front desk and explain  whats  going on .They sent a boy out to the pool and he walked out turned and left. So how I feel about it is someone should came out and overseen that everyone was obeying the rules My stayed was ruined. SO overall bad experince. SOMEONE needs to take responcibilty for what goes on .I know...My stay at best value inn was not a very good time. I am a local Alvin resident. The main reason I rent aroom is to enjoy the pool on a hot  Houston day. However after I checked in I went to the pool. Very nice and well kept. The frist thirty minites was wonderful. But then here comes .a family of four. The Mother used foul and abusive langage in front of her minor children Then they use the pool with thier clothes on no suimsuits.t hen the father blew his nose in the water not once not twice but several times. oh it gets better. Then the mom starts gagging and starts to throw up in the pool. Then people start showing up all same family, being dropped off in the parking lot, As i noticed they were using the same key to get in.   About 25 people by now, all one family, So I am totally grossed out by now, because every child in the pool keeps saying they have buggers on them. so I call the front desk and explain  whats  going on .They sent a boy out to the pool and he walked out turned and left. So how I feel about it is someone should came out and overseen that everyone was obeying the rules My stayed was ruined. SO overall bad experince. SOMEONE needs to take responcibilty for what goes on .I know most of that family did not stay at the hotel since I had nothing to do I watched several people out the window leave and not returned, Then this same family pulled a truck  up to the pool and turned the music up loud I could not belive it, So if your looking for a loud out of control  don't care attitude this is the place for you. SAD BUT TRUEMore</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1504,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1166,11 +1513,13 @@
         <v>52</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s"/>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
       <c r="T2" t="s"/>
       <c r="U2" t="n">
         <v>4</v>
@@ -1218,31 +1567,27 @@
         <v>57</v>
       </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -1258,7 +1603,7 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1267,37 +1612,35 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1305,7 +1648,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1321,7 +1664,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1330,39 +1673,43 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>66</v>
       </c>
-      <c r="J5" t="s">
+      <c r="O5" t="s">
         <v>67</v>
-      </c>
-      <c r="K5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" t="s">
-        <v>71</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1378,7 +1725,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1387,35 +1734,31 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K6" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="n">
         <v>5</v>
       </c>
@@ -1429,7 +1772,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
@@ -1445,7 +1788,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1454,45 +1797,39 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
         <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1508,7 +1845,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1517,32 +1854,32 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>64</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1553,7 +1890,7 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1569,7 +1906,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1578,45 +1915,39 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>91</v>
       </c>
-      <c r="L9" t="s">
-        <v>92</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>93</v>
-      </c>
       <c r="O9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1632,7 +1963,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1641,32 +1972,38 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K10" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O10" t="s">
         <v>52</v>
       </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
         <v>5</v>
@@ -1677,7 +2014,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -1693,7 +2030,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1702,39 +2039,45 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
@@ -1750,7 +2093,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -1759,45 +2102,39 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -1813,7 +2150,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -1822,34 +2159,32 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K13" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="O13" t="s">
-        <v>119</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q13" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>4</v>
@@ -1860,7 +2195,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14">
@@ -1900,17 +2235,21 @@
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="O14" t="s">
-        <v>64</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -1933,7 +2272,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -1942,32 +2281,38 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" t="s">
         <v>127</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>128</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>129</v>
       </c>
-      <c r="L15" t="s">
-        <v>130</v>
-      </c>
       <c r="M15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="O15" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
@@ -1990,7 +2335,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -1999,33 +2344,31 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
         <v>133</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>134</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>135</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>136</v>
       </c>
-      <c r="M16" t="n">
-        <v>5</v>
-      </c>
-      <c r="N16" t="s">
-        <v>131</v>
-      </c>
       <c r="O16" t="s">
-        <v>137</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>5</v>
-      </c>
-      <c r="R16" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
@@ -2037,7 +2380,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17">
@@ -2053,7 +2396,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2062,53 +2405,45 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
         <v>139</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>140</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>141</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>142</v>
       </c>
-      <c r="M17" t="n">
-        <v>4</v>
-      </c>
-      <c r="N17" t="s">
-        <v>143</v>
-      </c>
       <c r="O17" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
-        <v>144</v>
-      </c>
-      <c r="X17" t="s">
-        <v>145</v>
-      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18">
@@ -2124,7 +2459,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2133,53 +2468,39 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="O18" t="s">
-        <v>64</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s">
-        <v>153</v>
-      </c>
-      <c r="X18" t="s">
-        <v>154</v>
-      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19">
@@ -2195,7 +2516,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2204,53 +2525,39 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="L19" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="O19" t="s">
-        <v>119</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>4</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>162</v>
-      </c>
-      <c r="X19" t="s">
-        <v>163</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
@@ -2266,7 +2573,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2275,41 +2582,37 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="O20" t="s">
-        <v>71</v>
-      </c>
-      <c r="P20" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="n">
         <v>4</v>
       </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="n">
         <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2317,7 +2620,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21">
@@ -2333,7 +2636,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2342,41 +2645,37 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="J21" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="K21" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="L21" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="O21" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2384,7 +2683,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -2400,7 +2699,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2409,41 +2708,35 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="O22" t="s">
-        <v>71</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2451,7 +2744,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
@@ -2467,7 +2760,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2476,37 +2769,37 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="O23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2514,7 +2807,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24">
@@ -2530,7 +2823,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2539,45 +2832,39 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="J24" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L24" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4</v>
-      </c>
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+      <c r="O24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25">
@@ -2593,7 +2880,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2602,49 +2889,1229 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="O25" t="s">
-        <v>64</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>5</v>
-      </c>
-      <c r="S25" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>5</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>191</v>
+      </c>
+      <c r="J26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" t="s">
+        <v>193</v>
+      </c>
+      <c r="L26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>189</v>
+      </c>
+      <c r="O26" t="s">
+        <v>114</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>195</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>196</v>
+      </c>
+      <c r="J27" t="s">
+        <v>197</v>
+      </c>
+      <c r="K27" t="s">
+        <v>198</v>
+      </c>
+      <c r="L27" t="s">
         <v>199</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>200</v>
+      </c>
+      <c r="O27" t="s">
+        <v>52</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>201</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>202</v>
+      </c>
+      <c r="J28" t="s">
+        <v>203</v>
+      </c>
+      <c r="K28" t="s">
+        <v>204</v>
+      </c>
+      <c r="L28" t="s">
+        <v>205</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>200</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>206</v>
+      </c>
+      <c r="X28" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>209</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>210</v>
+      </c>
+      <c r="J29" t="s">
+        <v>211</v>
+      </c>
+      <c r="K29" t="s">
+        <v>212</v>
+      </c>
+      <c r="L29" t="s">
+        <v>213</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>214</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>215</v>
+      </c>
+      <c r="X29" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>218</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>219</v>
+      </c>
+      <c r="J30" t="s">
+        <v>220</v>
+      </c>
+      <c r="K30" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" t="s">
+        <v>222</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>223</v>
+      </c>
+      <c r="O30" t="s">
+        <v>59</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>4</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>224</v>
+      </c>
+      <c r="X30" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>228</v>
+      </c>
+      <c r="J31" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" t="s">
+        <v>231</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>232</v>
+      </c>
+      <c r="O31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>233</v>
+      </c>
+      <c r="X31" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>237</v>
+      </c>
+      <c r="J32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>241</v>
+      </c>
+      <c r="X32" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>245</v>
+      </c>
+      <c r="J33" t="s">
+        <v>246</v>
+      </c>
+      <c r="K33" t="s">
+        <v>247</v>
+      </c>
+      <c r="L33" t="s">
+        <v>248</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>249</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J34" t="s">
+        <v>253</v>
+      </c>
+      <c r="K34" t="s">
+        <v>254</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>256</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>258</v>
+      </c>
+      <c r="J35" t="s">
+        <v>259</v>
+      </c>
+      <c r="K35" t="s">
+        <v>260</v>
+      </c>
+      <c r="L35" t="s">
+        <v>261</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>262</v>
+      </c>
+      <c r="O35" t="s">
+        <v>59</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>263</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>264</v>
+      </c>
+      <c r="J36" t="s">
+        <v>265</v>
+      </c>
+      <c r="K36" t="s">
+        <v>266</v>
+      </c>
+      <c r="L36" t="s">
+        <v>267</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>268</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>59</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>281</v>
+      </c>
+      <c r="O38" t="s">
+        <v>67</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>282</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>283</v>
+      </c>
+      <c r="J39" t="s">
+        <v>284</v>
+      </c>
+      <c r="K39" t="s">
+        <v>285</v>
+      </c>
+      <c r="L39" t="s">
+        <v>286</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>287</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>1</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>288</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J40" t="s">
+        <v>290</v>
+      </c>
+      <c r="K40" t="s">
+        <v>291</v>
+      </c>
+      <c r="L40" t="s">
+        <v>292</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>299</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>300</v>
+      </c>
+      <c r="J42" t="s">
+        <v>301</v>
+      </c>
+      <c r="K42" t="s">
+        <v>302</v>
+      </c>
+      <c r="L42" t="s">
+        <v>303</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>304</v>
+      </c>
+      <c r="O42" t="s">
+        <v>165</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>305</v>
+      </c>
+      <c r="X42" t="s">
+        <v>306</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38981</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>309</v>
+      </c>
+      <c r="J43" t="s">
+        <v>310</v>
+      </c>
+      <c r="K43" t="s">
+        <v>311</v>
+      </c>
+      <c r="L43" t="s">
+        <v>312</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
